--- a/outputs/Lincoln3.xlsx
+++ b/outputs/Lincoln3.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 3. Computer Self-Efficacy
-Why: The page shown primarily provides an overview of the project with file listings and general information about the project. ABI prefers to gather comprehensive information to understand the problem fully before trying to solve it. The current page does not explicitly show any information or clear direction about filing an issue. Additionally, ABI's low confidence in unfamiliar computing tasks and her risk-averse nature means ABI might not consider this as a step toward achieving the overall goal of filing an issue due to the lack of clear and direct information.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page with various files and information about the project. There is no clear indication or direct link related to filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to look next without explicit guidance.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 3. Computer Self-Efficacy, 4. Attitude Towards Risk
-Why: The current page does not provide any explicit information or guidance on filing an issue. The "Issues" button on the side may not be immediately recognized by ABI as the correct action to take for filing an issue, given the lack of contextual information around it. ABI's comprehensive information processing style means she needs clear and direct instructions to feel confident in her actions. Additionally, ABI's low computer self-efficacy and risk-averse nature would deter her from clicking on an unclear button without being sure of its purpose.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for explicit guidance. Given her comprehensive information processing style, she would likely read through the options available on the side panel and recognize that "Issues" is relevant to her task of filing an issue. Additionally, the clear labeling helps mitigate her low computer self-efficacy, making her feel more confident about taking this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 3. Computer Self-Efficacy
-Why: After clicking the "Issue" button, ABI is taken to a page listing existing issues. However, this page does not provide explicit instructions or information on how to file a new issue. ABI might not immediately recognize that she needs to click on the "New Issue" button, as her comprehensive information processing style requires clear and direct instructions. Additionally, her low computer self-efficacy means she might not feel confident in her actions without explicit guidance, and she might be unsure if she is making progress towards her goal of filing an issue. The presence of many existing issues might also overwhelm her, further reducing her confidence.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit instructions or information on how to file a new issue. Given Abi's comprehensive information processing style, she would need clear guidance on the next steps. Additionally, her low computer self-efficacy might make her hesitant to proceed without explicit instructions, leading to uncertainty about whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The "New Issue" button is prominently displayed in green, which makes it stand out on the page. This visual cue is likely to draw ABI's attention and suggest that it is the next step for creating a new issue. Since ABI uses a comprehensive information processing style, the clear and prominent placement of the button provides a straightforward action to take, reducing ambiguity about the next step. This setup should make ABI feel confident in clicking the button to proceed with filing an issue.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The green "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to identify the next step. Given her comprehensive information processing style, she would likely read through the options on the page and recognize that this button is relevant to her task of filing an issue. The clear labeling and prominent placement of the button help mitigate her low computer self-efficacy, making her feel confident about taking this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "New Issue" button, ABI is taken to a clear and straightforward form for creating a new issue. The form includes labeled fields for the title, description, assignee, due date, and other relevant details, which aligns well with ABI's comprehensive information processing style. The presence of a "Create issue" button at the bottom also clearly indicates the next step. This layout provides all the necessary information and guidance ABI needs to feel confident that she is making progress toward her goal of filing an issue. The clear instructions and organized format will help boost ABI's confidence in completing the task.</t>
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, description, and other relevant details. This clear structure and labeling align with Abi's comprehensive information processing style, allowing her to understand that she is making progress toward her goal. Additionally, the straightforward layout and explicit instructions help mitigate her low computer self-efficacy, making her feel confident that she is on the right track and has all the information she needs to file an issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln3.xlsx
+++ b/outputs/Lincoln3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with various files and some information about the project. There is no clear indication or direct information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page primarily provides information about the repository's files and some general information about the project (FLOSScoach). There is no explicit mention or clear guidance on how to file an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar computing tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of direct and clear instructions would make her feel uncertain about proceeding.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's motivation to accomplish tasks efficiently. The label "Issues" is straightforward and directly related to the subgoal of filing an issue. Abi's comprehensive information processing style would lead her to read the available options on the side panel, and the clear labeling would make her confident in taking this action.</t>
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for clear and direct instructions. Given that Abi is motivated to file an issue and the button is explicitly labeled, she will likely recognize this as the next step to find information about filing an issue. The page provides a straightforward navigation option that does not require Abi to tinker or guess, which suits her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates progress, it does not provide explicit information on how to file a new issue. Abi's comprehensive information processing style means she needs clear, detailed instructions to feel confident she is on the right track. Additionally, her low computer self-efficacy might make her uncertain about what to do next without explicit guidance. The presence of a "New issue" button is helpful, but without clear instructions or confirmation that this is the correct next step, Abi might not feel confident she is making progress toward her goal.</t>
+Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi's comprehensive information processing style requires clear guidance, and her low computer self-efficacy means she might feel uncertain about what to do next without explicit instructions. The "New issue" button is present but not prominently explained, which might not be sufficient for Abi to feel confident she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to notice. The label "New issue" is clear and directly related to Abi's subgoal of filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would recognize that clicking this button is the next logical step toward her goal. The page provides a straightforward path to proceed, which aligns with her need for clear and direct instructions.</t>
+Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. Given Abi's motivation to file an issue and her preference for clear, direct instructions, she will likely recognize this button as the next step. The page is straightforward and does not overwhelm her with information, aligning with her comprehensive information processing style. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, which are standard components for filing an issue. This clear layout and labeling align with Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style. The page provides all the necessary information and fields required to file an issue, making it evident to Abi that she is making progress toward her goal.</t>
+Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This layout is straightforward and provides all the necessary information for filing an issue. Given Abi's motivation to file an issue and her preference for clear, direct instructions, she will recognize that she is making progress toward her goal and has all the information she needs to complete the task.</t>
         </is>
       </c>
     </row>

--- a/outputs/Lincoln3.xlsx
+++ b/outputs/Lincoln3.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily provides information about the repository's files and some general information about the project (FLOSScoach). There is no explicit mention or clear guidance on how to file an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar computing tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of direct and clear instructions would make her feel uncertain about proceeding.</t>
+Why: The page primarily displays repository files and some general information about the project. There is no clear indication or direct information about filing an issue. Given Abi's need for comprehensive information and low confidence in unfamiliar computing tasks, she is unlikely to consider this page as a step toward finding information about filing an issue. The lack of explicit guidance or relevant information on this page would not align with her motivations or information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for clear and direct instructions. Given that Abi is motivated to file an issue and the button is explicitly labeled, she will likely recognize this as the next step to find information about filing an issue. The page provides a straightforward navigation option that does not require Abi to tinker or guess, which suits her comprehensive information processing style.</t>
+Why: The "Issues" button on the side panel is clearly labeled, which aligns with Abi's need for clear and direct information. Given that Abi is motivated to file an issue and the button is prominently displayed, she is likely to recognize this as the next step. The page provides a straightforward navigation option that does not require Abi to tinker or guess, which aligns with her information processing style and motivations.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Issues" button, Abi lands on a page listing existing issues. While this indicates she is in the right area, the page does not provide explicit instructions or comprehensive information on how to file a new issue. Abi's comprehensive information processing style requires clear guidance, and her low computer self-efficacy means she might feel uncertain about what to do next without explicit instructions. The "New issue" button is present but not prominently explained, which might not be sufficient for Abi to feel confident she is making progress toward her goal.</t>
+Why: While Abi will know she is on the "Issues" page, the page primarily lists existing issues without providing explicit information on how to file a new issue. Abi's comprehensive information processing style requires clear and detailed instructions, which are not present on this page. Additionally, her low computer self-efficacy means she might not feel confident in figuring out the next steps without explicit guidance. The "New issue" button is present, but without clear instructions or context, Abi might not be sure if this is the correct action to take.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "New issue" button is prominently displayed in blue at the top right of the page, making it easy to identify. Given Abi's motivation to file an issue and her preference for clear, direct instructions, she will likely recognize this button as the next step. The page is straightforward and does not overwhelm her with information, aligning with her comprehensive information processing style. Therefore, Abi will know what to do at this step and will feel confident in taking this action.</t>
+Why: The "New issue" button is prominently displayed and clearly labeled, making it easy for Abi to identify as the next step in filing an issue. Given her motivation to file an issue and the straightforward labeling, she will likely recognize this as the correct action to take. The page is simple and not overwhelming, which aligns with her information processing style, allowing her to confidently proceed with this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking the "New issue" button, Abi lands on a page specifically designed for creating a new issue. The page is clearly labeled "New Issue" and provides fields for the title, type, and description, along with a "Create issue" button. This layout is straightforward and provides all the necessary information for filing an issue. Given Abi's motivation to file an issue and her preference for clear, direct instructions, she will recognize that she is making progress toward her goal and has all the information she needs to complete the task.</t>
+Why: Upon clicking the "New issue" button, Abi is taken to a page specifically for creating a new issue. The page is clearly labeled "New Issue" and provides fields for entering the title, type, and description of the issue. This clear and straightforward layout aligns with Abi's need for comprehensive information and her motivation to file an issue. The presence of the "Create issue" button further confirms that she is on the right track and making progress toward her goal. The page provides all the necessary information and fields required to file an issue, ensuring that Abi knows she did the right thing and has the information she needs.</t>
         </is>
       </c>
     </row>
